--- a/data/suma_status2.xlsx
+++ b/data/suma_status2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14B7A95-D709-674D-9DCC-4B6167F1BE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4C3FC0-546D-7E47-A774-B3B3B18630F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30180" yWindow="740" windowWidth="27640" windowHeight="15760" xr2:uid="{0724B997-A6AE-2447-A840-5D88458AC075}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F32C8E-C605-0743-B930-FAA056347F19}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -452,6 +452,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
